--- a/sdq-analysis/src/test/resources/MasterDataRecordFor28_6.xlsx
+++ b/sdq-analysis/src/test/resources/MasterDataRecordFor28_6.xlsx
@@ -4,9 +4,9 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
   <fileSharing readOnlyRecommended="1"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5210BDF4-19C7-1042-8778-F02A1432A88E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{586EC54B-7F13-2649-B42B-A43B901D68C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions for Use" sheetId="11" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -2022,6 +2022,22 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -2039,22 +2055,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -33645,7 +33645,7 @@
       </c>
       <c r="E16" s="91" t="str" cm="1">
         <f t="array" ref="E16">IF(SUMPRODUCT(--(TRIM(E29:E37)&lt;&gt;"") + --(TRIM(F29:F37)&lt;&gt;""))=0, "", IF(SUMPRODUCT((E29:E35&lt;&gt;"")*(E30:E36&lt;&gt;"")*(E31:E37&lt;&gt;"")*(F29:F35&lt;&gt;"")*(F30:F36&lt;&gt;"")*(F31:F37&lt;&gt;""))&gt;0, "Complete", "Incomplete"))</f>
-        <v/>
+        <v>Incomplete</v>
       </c>
       <c r="M16" s="24"/>
     </row>
@@ -33758,13 +33758,13 @@
         <v>91</v>
       </c>
       <c r="G27" s="29"/>
-      <c r="H27" s="171" t="s">
+      <c r="H27" s="175" t="s">
         <v>123</v>
       </c>
-      <c r="I27" s="172"/>
-      <c r="J27" s="172"/>
-      <c r="K27" s="172"/>
-      <c r="L27" s="173"/>
+      <c r="I27" s="176"/>
+      <c r="J27" s="176"/>
+      <c r="K27" s="176"/>
+      <c r="L27" s="177"/>
       <c r="M27" s="24"/>
     </row>
     <row r="28" spans="2:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -33800,9 +33800,9 @@
       <c r="D29" s="36" t="s">
         <v>75</v>
       </c>
-      <c r="E29" s="49" t="str">
+      <c r="E29" s="49">
         <f>IF('Goal Based Outcomes (GBO)'!D13&lt;&gt;"", 'Goal Based Outcomes (GBO)'!D13, IF('Goal Based Outcomes (GBO)'!D36&lt;&gt;"", 'Goal Based Outcomes (GBO)'!D36, IF('Goal Based Outcomes (GBO)'!D59&lt;&gt;"", 'Goal Based Outcomes (GBO)'!D59, IF('Goal Based Outcomes (GBO)'!D82&lt;&gt;"",'Goal Based Outcomes (GBO)'!D82, ""))))</f>
-        <v/>
+        <v>45880</v>
       </c>
       <c r="F29" s="50" t="str">
         <f>IF('SDQ Period 1'!D6&lt;&gt;"", 'SDQ Period 1'!D6, "")</f>
@@ -34051,13 +34051,13 @@
         <v>Complete</v>
       </c>
       <c r="E44" s="95"/>
-      <c r="F44" s="174"/>
-      <c r="G44" s="174"/>
-      <c r="H44" s="174"/>
-      <c r="I44" s="174"/>
-      <c r="J44" s="174"/>
-      <c r="K44" s="174"/>
-      <c r="L44" s="175"/>
+      <c r="F44" s="178"/>
+      <c r="G44" s="178"/>
+      <c r="H44" s="178"/>
+      <c r="I44" s="178"/>
+      <c r="J44" s="178"/>
+      <c r="K44" s="178"/>
+      <c r="L44" s="179"/>
       <c r="M44" s="24"/>
     </row>
     <row r="45" spans="2:13" ht="16" x14ac:dyDescent="0.2">
@@ -34069,16 +34069,16 @@
         <f>IF(COUNTA('Goal Based Outcomes (GBO)'!L33:Q33)=0, "",
    IF(COUNTIF('Goal Based Outcomes (GBO)'!L33:Q33, "Incomplete")&gt;0, "Incomplete",
    IF(COUNTIF('Goal Based Outcomes (GBO)'!L33:Q33, "Complete")&gt;0, "Complete", "")))</f>
-        <v/>
+        <v>Incomplete</v>
       </c>
       <c r="E45" s="96"/>
-      <c r="F45" s="176"/>
-      <c r="G45" s="176"/>
-      <c r="H45" s="176"/>
-      <c r="I45" s="176"/>
-      <c r="J45" s="176"/>
-      <c r="K45" s="176"/>
-      <c r="L45" s="177"/>
+      <c r="F45" s="171"/>
+      <c r="G45" s="171"/>
+      <c r="H45" s="171"/>
+      <c r="I45" s="171"/>
+      <c r="J45" s="171"/>
+      <c r="K45" s="171"/>
+      <c r="L45" s="172"/>
       <c r="M45" s="24"/>
     </row>
     <row r="46" spans="2:13" x14ac:dyDescent="0.2">
@@ -34091,13 +34091,13 @@
         <v>Incomplete</v>
       </c>
       <c r="E46" s="96"/>
-      <c r="F46" s="176"/>
-      <c r="G46" s="176"/>
-      <c r="H46" s="176"/>
-      <c r="I46" s="176"/>
-      <c r="J46" s="176"/>
-      <c r="K46" s="176"/>
-      <c r="L46" s="177"/>
+      <c r="F46" s="171"/>
+      <c r="G46" s="171"/>
+      <c r="H46" s="171"/>
+      <c r="I46" s="171"/>
+      <c r="J46" s="171"/>
+      <c r="K46" s="171"/>
+      <c r="L46" s="172"/>
       <c r="M46" s="24"/>
     </row>
     <row r="47" spans="2:13" x14ac:dyDescent="0.2">
@@ -34110,13 +34110,13 @@
         <v>Incomplete</v>
       </c>
       <c r="E47" s="96"/>
-      <c r="F47" s="176"/>
-      <c r="G47" s="176"/>
-      <c r="H47" s="176"/>
-      <c r="I47" s="176"/>
-      <c r="J47" s="176"/>
-      <c r="K47" s="176"/>
-      <c r="L47" s="177"/>
+      <c r="F47" s="171"/>
+      <c r="G47" s="171"/>
+      <c r="H47" s="171"/>
+      <c r="I47" s="171"/>
+      <c r="J47" s="171"/>
+      <c r="K47" s="171"/>
+      <c r="L47" s="172"/>
       <c r="M47" s="24"/>
     </row>
     <row r="48" spans="2:13" x14ac:dyDescent="0.2">
@@ -34129,13 +34129,13 @@
         <v/>
       </c>
       <c r="E48" s="96"/>
-      <c r="F48" s="176"/>
-      <c r="G48" s="176"/>
-      <c r="H48" s="176"/>
-      <c r="I48" s="176"/>
-      <c r="J48" s="176"/>
-      <c r="K48" s="176"/>
-      <c r="L48" s="177"/>
+      <c r="F48" s="171"/>
+      <c r="G48" s="171"/>
+      <c r="H48" s="171"/>
+      <c r="I48" s="171"/>
+      <c r="J48" s="171"/>
+      <c r="K48" s="171"/>
+      <c r="L48" s="172"/>
       <c r="M48" s="24"/>
     </row>
     <row r="49" spans="2:13" x14ac:dyDescent="0.2">
@@ -34148,13 +34148,13 @@
         <v/>
       </c>
       <c r="E49" s="96"/>
-      <c r="F49" s="176"/>
-      <c r="G49" s="176"/>
-      <c r="H49" s="176"/>
-      <c r="I49" s="176"/>
-      <c r="J49" s="176"/>
-      <c r="K49" s="176"/>
-      <c r="L49" s="177"/>
+      <c r="F49" s="171"/>
+      <c r="G49" s="171"/>
+      <c r="H49" s="171"/>
+      <c r="I49" s="171"/>
+      <c r="J49" s="171"/>
+      <c r="K49" s="171"/>
+      <c r="L49" s="172"/>
       <c r="M49" s="24"/>
     </row>
     <row r="50" spans="2:13" x14ac:dyDescent="0.2">
@@ -34167,13 +34167,13 @@
         <v/>
       </c>
       <c r="E50" s="96"/>
-      <c r="F50" s="176"/>
-      <c r="G50" s="176"/>
-      <c r="H50" s="176"/>
-      <c r="I50" s="176"/>
-      <c r="J50" s="176"/>
-      <c r="K50" s="176"/>
-      <c r="L50" s="177"/>
+      <c r="F50" s="171"/>
+      <c r="G50" s="171"/>
+      <c r="H50" s="171"/>
+      <c r="I50" s="171"/>
+      <c r="J50" s="171"/>
+      <c r="K50" s="171"/>
+      <c r="L50" s="172"/>
       <c r="M50" s="24"/>
     </row>
     <row r="51" spans="2:13" x14ac:dyDescent="0.2">
@@ -34186,13 +34186,13 @@
         <v/>
       </c>
       <c r="E51" s="96"/>
-      <c r="F51" s="176"/>
-      <c r="G51" s="176"/>
-      <c r="H51" s="176"/>
-      <c r="I51" s="176"/>
-      <c r="J51" s="176"/>
-      <c r="K51" s="176"/>
-      <c r="L51" s="177"/>
+      <c r="F51" s="171"/>
+      <c r="G51" s="171"/>
+      <c r="H51" s="171"/>
+      <c r="I51" s="171"/>
+      <c r="J51" s="171"/>
+      <c r="K51" s="171"/>
+      <c r="L51" s="172"/>
       <c r="M51" s="24"/>
     </row>
     <row r="52" spans="2:13" x14ac:dyDescent="0.2">
@@ -34205,13 +34205,13 @@
         <v/>
       </c>
       <c r="E52" s="96"/>
-      <c r="F52" s="176"/>
-      <c r="G52" s="176"/>
-      <c r="H52" s="176"/>
-      <c r="I52" s="176"/>
-      <c r="J52" s="176"/>
-      <c r="K52" s="176"/>
-      <c r="L52" s="177"/>
+      <c r="F52" s="171"/>
+      <c r="G52" s="171"/>
+      <c r="H52" s="171"/>
+      <c r="I52" s="171"/>
+      <c r="J52" s="171"/>
+      <c r="K52" s="171"/>
+      <c r="L52" s="172"/>
       <c r="M52" s="24"/>
     </row>
     <row r="53" spans="2:13" x14ac:dyDescent="0.2">
@@ -34224,13 +34224,13 @@
         <v/>
       </c>
       <c r="E53" s="96"/>
-      <c r="F53" s="176"/>
-      <c r="G53" s="176"/>
-      <c r="H53" s="176"/>
-      <c r="I53" s="176"/>
-      <c r="J53" s="176"/>
-      <c r="K53" s="176"/>
-      <c r="L53" s="177"/>
+      <c r="F53" s="171"/>
+      <c r="G53" s="171"/>
+      <c r="H53" s="171"/>
+      <c r="I53" s="171"/>
+      <c r="J53" s="171"/>
+      <c r="K53" s="171"/>
+      <c r="L53" s="172"/>
       <c r="M53" s="24"/>
     </row>
     <row r="54" spans="2:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -34243,13 +34243,13 @@
         <v/>
       </c>
       <c r="E54" s="97"/>
-      <c r="F54" s="178"/>
-      <c r="G54" s="178"/>
-      <c r="H54" s="178"/>
-      <c r="I54" s="178"/>
-      <c r="J54" s="178"/>
-      <c r="K54" s="178"/>
-      <c r="L54" s="179"/>
+      <c r="F54" s="173"/>
+      <c r="G54" s="173"/>
+      <c r="H54" s="173"/>
+      <c r="I54" s="173"/>
+      <c r="J54" s="173"/>
+      <c r="K54" s="173"/>
+      <c r="L54" s="174"/>
       <c r="M54" s="24"/>
     </row>
     <row r="55" spans="2:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -34284,21 +34284,21 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="meQlOIUyLBIuMEmLULxOJ5BN6ywfQKo/ce77jYeQOok4oymmYE6uhv4CE50s1CJqAdhs10ldO7sl02oDeL3B4Q==" saltValue="S188sJ2TnHkDHo5hfVrlJg==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="15">
+    <mergeCell ref="H26:L26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="H27:L27"/>
+    <mergeCell ref="F42:L42"/>
+    <mergeCell ref="F44:L44"/>
+    <mergeCell ref="F45:L45"/>
+    <mergeCell ref="F46:L46"/>
+    <mergeCell ref="F47:L47"/>
+    <mergeCell ref="F48:L48"/>
+    <mergeCell ref="F49:L49"/>
     <mergeCell ref="F50:L50"/>
     <mergeCell ref="F51:L51"/>
     <mergeCell ref="F52:L52"/>
     <mergeCell ref="F53:L53"/>
     <mergeCell ref="F54:L54"/>
-    <mergeCell ref="F45:L45"/>
-    <mergeCell ref="F46:L46"/>
-    <mergeCell ref="F47:L47"/>
-    <mergeCell ref="F48:L48"/>
-    <mergeCell ref="F49:L49"/>
-    <mergeCell ref="H26:L26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="H27:L27"/>
-    <mergeCell ref="F42:L42"/>
-    <mergeCell ref="F44:L44"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="E21">
@@ -35124,8 +35124,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62A8479E-4F5E-42FF-8DD7-4582E2E43D73}">
   <dimension ref="B1:Q99"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -35296,36 +35296,50 @@
       <c r="C13" s="116" t="s">
         <v>75</v>
       </c>
-      <c r="D13" s="38"/>
-      <c r="E13" s="122"/>
-      <c r="F13" s="122"/>
-      <c r="G13" s="122"/>
-      <c r="H13" s="122"/>
-      <c r="I13" s="122"/>
-      <c r="J13" s="123"/>
+      <c r="D13" s="38">
+        <v>45880</v>
+      </c>
+      <c r="E13" s="122">
+        <v>4</v>
+      </c>
+      <c r="F13" s="122">
+        <v>5</v>
+      </c>
+      <c r="G13" s="122">
+        <v>6</v>
+      </c>
+      <c r="H13" s="122">
+        <v>7</v>
+      </c>
+      <c r="I13" s="122">
+        <v>8</v>
+      </c>
+      <c r="J13" s="123">
+        <v>3</v>
+      </c>
       <c r="L13" s="118" t="str">
         <f t="shared" ref="L13:L29" si="0">IF(OR(LEN(TRIM(E13))&gt;0, LEN(TRIM(E36))&gt;0, LEN(TRIM(E59))&gt;0, LEN(TRIM(E82))&gt;0), "✓", "")</f>
-        <v/>
+        <v>✓</v>
       </c>
       <c r="M13" s="8" t="str">
         <f t="shared" ref="M13:M21" si="1">IF(OR(LEN(TRIM(F13))&gt;0, LEN(TRIM(F36))&gt;0, LEN(TRIM(F59))&gt;0, LEN(TRIM(F82))&gt;0), "✓", "")</f>
-        <v/>
+        <v>✓</v>
       </c>
       <c r="N13" s="8" t="str">
         <f t="shared" ref="N13:N21" si="2">IF(OR(LEN(TRIM(G13))&gt;0, LEN(TRIM(G36))&gt;0, LEN(TRIM(G59))&gt;0, LEN(TRIM(G82))&gt;0), "✓", "")</f>
-        <v/>
+        <v>✓</v>
       </c>
       <c r="O13" s="8" t="str">
         <f t="shared" ref="O13:O21" si="3">IF(OR(LEN(TRIM(H13))&gt;0, LEN(TRIM(H36))&gt;0, LEN(TRIM(H59))&gt;0, LEN(TRIM(H82))&gt;0), "✓", "")</f>
-        <v/>
+        <v>✓</v>
       </c>
       <c r="P13" s="8" t="str">
         <f t="shared" ref="P13:P21" si="4">IF(OR(LEN(TRIM(I13))&gt;0, LEN(TRIM(I36))&gt;0, LEN(TRIM(I59))&gt;0, LEN(TRIM(I82))&gt;0), "✓", "")</f>
-        <v/>
+        <v>✓</v>
       </c>
       <c r="Q13" s="119" t="str">
         <f>IF(OR(LEN(TRIM(J13))&gt;0, LEN(TRIM(J36))&gt;0, LEN(TRIM(J59))&gt;0, LEN(TRIM(J82))&gt;0), "✓", "")</f>
-        <v/>
+        <v>✓</v>
       </c>
     </row>
     <row r="14" spans="3:17" x14ac:dyDescent="0.2">
@@ -35991,27 +36005,27 @@
      AND(L18="✓", L19="✓", L20="✓"),
      AND(L19="✓", L20="✓", L21="✓")
    ), "Complete", "Incomplete"))</f>
-        <v/>
+        <v>Incomplete</v>
       </c>
       <c r="M33" s="85" t="str">
         <f t="shared" si="11"/>
-        <v/>
+        <v>Incomplete</v>
       </c>
       <c r="N33" s="85" t="str">
         <f t="shared" si="11"/>
-        <v/>
+        <v>Incomplete</v>
       </c>
       <c r="O33" s="85" t="str">
         <f t="shared" si="11"/>
-        <v/>
+        <v>Incomplete</v>
       </c>
       <c r="P33" s="85" t="str">
         <f t="shared" si="11"/>
-        <v/>
+        <v>Incomplete</v>
       </c>
       <c r="Q33" s="85" t="str">
         <f t="shared" si="11"/>
-        <v/>
+        <v>Incomplete</v>
       </c>
     </row>
     <row r="34" spans="2:17" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -37180,8 +37194,8 @@
   </sheetPr>
   <dimension ref="B2:R130"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E76" sqref="E76:G100"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F91" sqref="F91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -39096,7 +39110,7 @@
   </sheetPr>
   <dimension ref="B2:R130"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A68" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E77" sqref="E77"/>
     </sheetView>
   </sheetViews>
